--- a/Code/Results/Cases/Case_6_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019306876341636</v>
+        <v>1.020490759373901</v>
       </c>
       <c r="D2">
-        <v>1.034893490809196</v>
+        <v>1.036180612682664</v>
       </c>
       <c r="E2">
-        <v>1.031015470686922</v>
+        <v>1.032579189248166</v>
       </c>
       <c r="F2">
-        <v>1.038382602889056</v>
+        <v>1.039884679573454</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055591884706011</v>
+        <v>1.056386634403826</v>
       </c>
       <c r="J2">
-        <v>1.040925067447192</v>
+        <v>1.042075403626021</v>
       </c>
       <c r="K2">
-        <v>1.045887200361024</v>
+        <v>1.047157896096938</v>
       </c>
       <c r="L2">
-        <v>1.042058981319149</v>
+        <v>1.043602562512908</v>
       </c>
       <c r="M2">
-        <v>1.049331902584778</v>
+        <v>1.050814975170211</v>
       </c>
       <c r="N2">
-        <v>1.042403300438742</v>
+        <v>1.043555270226889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026023094526307</v>
+        <v>1.024757564056574</v>
       </c>
       <c r="D3">
-        <v>1.04010311033327</v>
+        <v>1.039416117614279</v>
       </c>
       <c r="E3">
-        <v>1.036815248651109</v>
+        <v>1.036192549180605</v>
       </c>
       <c r="F3">
-        <v>1.044611451863797</v>
+        <v>1.043952653808933</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058092313934738</v>
+        <v>1.057926985446656</v>
       </c>
       <c r="J3">
-        <v>1.045828634949536</v>
+        <v>1.044595335109182</v>
       </c>
       <c r="K3">
-        <v>1.050247343247118</v>
+        <v>1.049568328764263</v>
       </c>
       <c r="L3">
-        <v>1.046997782893291</v>
+        <v>1.046382371314536</v>
       </c>
       <c r="M3">
-        <v>1.054703649667194</v>
+        <v>1.054052420812786</v>
       </c>
       <c r="N3">
-        <v>1.047313831569385</v>
+        <v>1.046078780301797</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030250480655682</v>
+        <v>1.027464745134129</v>
       </c>
       <c r="D4">
-        <v>1.043383653494207</v>
+        <v>1.041470845359133</v>
       </c>
       <c r="E4">
-        <v>1.040471220793059</v>
+        <v>1.038490678632073</v>
       </c>
       <c r="F4">
-        <v>1.048538862563047</v>
+        <v>1.046539935755724</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059652735500861</v>
+        <v>1.058894458317251</v>
       </c>
       <c r="J4">
-        <v>1.048910800486015</v>
+        <v>1.046191068966493</v>
       </c>
       <c r="K4">
-        <v>1.052985221650093</v>
+        <v>1.051093248734977</v>
       </c>
       <c r="L4">
-        <v>1.050104549979521</v>
+        <v>1.048145731287518</v>
       </c>
       <c r="M4">
-        <v>1.058084741608971</v>
+        <v>1.056107328353892</v>
       </c>
       <c r="N4">
-        <v>1.050400374134455</v>
+        <v>1.047676780284219</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032000741601422</v>
+        <v>1.028590406700383</v>
       </c>
       <c r="D5">
-        <v>1.044742157079218</v>
+        <v>1.04232562132282</v>
       </c>
       <c r="E5">
-        <v>1.041986128986911</v>
+        <v>1.039447550217309</v>
       </c>
       <c r="F5">
-        <v>1.050166485728999</v>
+        <v>1.047617214791869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060295519196588</v>
+        <v>1.059294342381772</v>
       </c>
       <c r="J5">
-        <v>1.050185824197071</v>
+        <v>1.046853811125738</v>
       </c>
       <c r="K5">
-        <v>1.054117152127525</v>
+        <v>1.051726218523362</v>
       </c>
       <c r="L5">
-        <v>1.051390334605797</v>
+        <v>1.048878829545224</v>
       </c>
       <c r="M5">
-        <v>1.059484536539492</v>
+        <v>1.056961937912177</v>
       </c>
       <c r="N5">
-        <v>1.051677208525429</v>
+        <v>1.048340463613347</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032293078314272</v>
+        <v>1.028778692887555</v>
       </c>
       <c r="D6">
-        <v>1.044969073729669</v>
+        <v>1.0424686200251</v>
       </c>
       <c r="E6">
-        <v>1.042239226290926</v>
+        <v>1.039607678612164</v>
       </c>
       <c r="F6">
-        <v>1.05043842879625</v>
+        <v>1.047797493912661</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060402685669866</v>
+        <v>1.059361087938778</v>
       </c>
       <c r="J6">
-        <v>1.050398719386282</v>
+        <v>1.046964619813803</v>
       </c>
       <c r="K6">
-        <v>1.054306114662273</v>
+        <v>1.05183202784245</v>
       </c>
       <c r="L6">
-        <v>1.051605060778788</v>
+        <v>1.049001445033212</v>
       </c>
       <c r="M6">
-        <v>1.059718330529518</v>
+        <v>1.057104894922814</v>
       </c>
       <c r="N6">
-        <v>1.051890406050227</v>
+        <v>1.048451429662459</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030273971744716</v>
+        <v>1.027479834600419</v>
       </c>
       <c r="D7">
-        <v>1.04340188568902</v>
+        <v>1.041482302053651</v>
       </c>
       <c r="E7">
-        <v>1.040491548328081</v>
+        <v>1.038503500397636</v>
       </c>
       <c r="F7">
-        <v>1.04856070158405</v>
+        <v>1.046554370877197</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059661375641186</v>
+        <v>1.058899828265874</v>
       </c>
       <c r="J7">
-        <v>1.048927917541441</v>
+        <v>1.046199956101437</v>
       </c>
       <c r="K7">
-        <v>1.053000420366265</v>
+        <v>1.051101738073646</v>
       </c>
       <c r="L7">
-        <v>1.050121809195123</v>
+        <v>1.048155558954272</v>
       </c>
       <c r="M7">
-        <v>1.058103529307998</v>
+        <v>1.05611878375575</v>
       </c>
       <c r="N7">
-        <v>1.050417515498064</v>
+        <v>1.047685680039913</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021602074190927</v>
+        <v>1.021944132748191</v>
       </c>
       <c r="D8">
-        <v>1.03667346331666</v>
+        <v>1.037282280498788</v>
       </c>
       <c r="E8">
-        <v>1.032996297110604</v>
+        <v>1.033808801420691</v>
       </c>
       <c r="F8">
-        <v>1.040509773442413</v>
+        <v>1.041268998396641</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056449173663779</v>
+        <v>1.056913354512153</v>
       </c>
       <c r="J8">
-        <v>1.042601679108261</v>
+        <v>1.042934382546109</v>
       </c>
       <c r="K8">
-        <v>1.047378567345596</v>
+        <v>1.047979854118883</v>
       </c>
       <c r="L8">
-        <v>1.043747118870684</v>
+        <v>1.044549486542146</v>
       </c>
       <c r="M8">
-        <v>1.051167609551181</v>
+        <v>1.051917531289678</v>
       </c>
       <c r="N8">
-        <v>1.044082293080679</v>
+        <v>1.04441546899557</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005343656955638</v>
+        <v>1.011757901960992</v>
       </c>
       <c r="D9">
-        <v>1.024074861759035</v>
+        <v>1.029570841397876</v>
       </c>
       <c r="E9">
-        <v>1.018991365656664</v>
+        <v>1.025215785997831</v>
       </c>
       <c r="F9">
-        <v>1.025473948672619</v>
+        <v>1.031594476628917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050321091705004</v>
+        <v>1.053181524333071</v>
       </c>
       <c r="J9">
-        <v>1.030709117884472</v>
+        <v>1.036902182860221</v>
       </c>
       <c r="K9">
-        <v>1.036789053977383</v>
+        <v>1.04220170278979</v>
       </c>
       <c r="L9">
-        <v>1.031783656468225</v>
+        <v>1.037912585681366</v>
       </c>
       <c r="M9">
-        <v>1.038166819704037</v>
+        <v>1.044194939999354</v>
       </c>
       <c r="N9">
-        <v>1.032172843055857</v>
+        <v>1.038374702894226</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.993738584305047</v>
+        <v>1.004647056638727</v>
       </c>
       <c r="D10">
-        <v>1.015099847987401</v>
+        <v>1.024202168974228</v>
       </c>
       <c r="E10">
-        <v>1.009032877338695</v>
+        <v>1.019250539294596</v>
       </c>
       <c r="F10">
-        <v>1.014786845101107</v>
+        <v>1.024877531262065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045879040060185</v>
+        <v>1.050526954303986</v>
       </c>
       <c r="J10">
-        <v>1.022202848625555</v>
+        <v>1.032677505583717</v>
       </c>
       <c r="K10">
-        <v>1.02920171902128</v>
+        <v>1.03814777570544</v>
       </c>
       <c r="L10">
-        <v>1.023240933422626</v>
+        <v>1.033280705735102</v>
       </c>
       <c r="M10">
-        <v>1.028894154152172</v>
+        <v>1.038811686457226</v>
       </c>
       <c r="N10">
-        <v>1.023654493918909</v>
+        <v>1.034144026091411</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9885037262963796</v>
+        <v>1.001484896649928</v>
       </c>
       <c r="D11">
-        <v>1.011057273072684</v>
+        <v>1.021818914875608</v>
       </c>
       <c r="E11">
-        <v>1.004551271618374</v>
+        <v>1.01660633440705</v>
       </c>
       <c r="F11">
-        <v>1.009978242244304</v>
+        <v>1.021899746603368</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043860179130472</v>
+        <v>1.04933529123928</v>
       </c>
       <c r="J11">
-        <v>1.01836270959538</v>
+        <v>1.03079603239186</v>
       </c>
       <c r="K11">
-        <v>1.025773635165421</v>
+        <v>1.036340764019205</v>
       </c>
       <c r="L11">
-        <v>1.019387865008467</v>
+        <v>1.031221730505755</v>
       </c>
       <c r="M11">
-        <v>1.02471440531079</v>
+        <v>1.036420154864627</v>
       </c>
       <c r="N11">
-        <v>1.01980890145084</v>
+        <v>1.032259880991814</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9865250308649122</v>
+        <v>1.000297184684711</v>
       </c>
       <c r="D12">
-        <v>1.009530289974401</v>
+        <v>1.02092445137966</v>
       </c>
       <c r="E12">
-        <v>1.002859011336884</v>
+        <v>1.015614499061057</v>
       </c>
       <c r="F12">
-        <v>1.008162628773474</v>
+        <v>1.020782715895405</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043094902436433</v>
+        <v>1.04888606749976</v>
       </c>
       <c r="J12">
-        <v>1.01691083037121</v>
+        <v>1.030088972444465</v>
       </c>
       <c r="K12">
-        <v>1.024477154335226</v>
+        <v>1.035661459370427</v>
       </c>
       <c r="L12">
-        <v>1.017931641418988</v>
+        <v>1.030448541822688</v>
       </c>
       <c r="M12">
-        <v>1.023135098927402</v>
+        <v>1.035522296919551</v>
       </c>
       <c r="N12">
-        <v>1.018354960391639</v>
+        <v>1.031551816938192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.986951064141384</v>
+        <v>1.000552558806644</v>
       </c>
       <c r="D13">
-        <v>1.009859014954383</v>
+        <v>1.021116740872796</v>
       </c>
       <c r="E13">
-        <v>1.003223292301709</v>
+        <v>1.015827696001386</v>
       </c>
       <c r="F13">
-        <v>1.00855345786867</v>
+        <v>1.021022827230641</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043259771044371</v>
+        <v>1.048982729692141</v>
       </c>
       <c r="J13">
-        <v>1.017223449571165</v>
+        <v>1.030241016182143</v>
       </c>
       <c r="K13">
-        <v>1.024756330274338</v>
+        <v>1.035807544810442</v>
       </c>
       <c r="L13">
-        <v>1.01824517125106</v>
+        <v>1.030614779613457</v>
       </c>
       <c r="M13">
-        <v>1.023475111645237</v>
+        <v>1.035715329424081</v>
       </c>
       <c r="N13">
-        <v>1.018668023546717</v>
+        <v>1.031704076595418</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9883408819713384</v>
+        <v>1.001386992116814</v>
       </c>
       <c r="D14">
-        <v>1.010931581914054</v>
+        <v>1.021745168757658</v>
       </c>
       <c r="E14">
-        <v>1.004411964881317</v>
+        <v>1.016524548828796</v>
       </c>
       <c r="F14">
-        <v>1.009828778703661</v>
+        <v>1.021807639075136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043797241376325</v>
+        <v>1.04929829410703</v>
       </c>
       <c r="J14">
-        <v>1.018243228446531</v>
+        <v>1.03073775597985</v>
       </c>
       <c r="K14">
-        <v>1.025666950159534</v>
+        <v>1.036284779781775</v>
       </c>
       <c r="L14">
-        <v>1.019268015222268</v>
+        <v>1.031157991996436</v>
       </c>
       <c r="M14">
-        <v>1.024584417837474</v>
+        <v>1.036346134834446</v>
       </c>
       <c r="N14">
-        <v>1.019689250625056</v>
+        <v>1.032201521820614</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9891925712917241</v>
+        <v>1.001899351785502</v>
       </c>
       <c r="D15">
-        <v>1.011589000691098</v>
+        <v>1.022131129739277</v>
       </c>
       <c r="E15">
-        <v>1.005140621364754</v>
+        <v>1.016952608474552</v>
       </c>
       <c r="F15">
-        <v>1.010610566117819</v>
+        <v>1.022289720087615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044126323042624</v>
+        <v>1.04949184333709</v>
       </c>
       <c r="J15">
-        <v>1.018868110494683</v>
+        <v>1.031042716401099</v>
       </c>
       <c r="K15">
-        <v>1.026224893110027</v>
+        <v>1.036577736047024</v>
       </c>
       <c r="L15">
-        <v>1.01989484743617</v>
+        <v>1.031491559072006</v>
       </c>
       <c r="M15">
-        <v>1.025264287209972</v>
+        <v>1.036733517536677</v>
       </c>
       <c r="N15">
-        <v>1.02031502007739</v>
+        <v>1.032506915320641</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9940813597218883</v>
+        <v>1.004855112452239</v>
       </c>
       <c r="D16">
-        <v>1.015364688946626</v>
+        <v>1.024359068552155</v>
       </c>
       <c r="E16">
-        <v>1.009326559316997</v>
+        <v>1.019424697876681</v>
       </c>
       <c r="F16">
-        <v>1.015101972908634</v>
+        <v>1.025073651823605</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046010928163847</v>
+        <v>1.05060513109022</v>
       </c>
       <c r="J16">
-        <v>1.022454242587733</v>
+        <v>1.032801243555876</v>
       </c>
       <c r="K16">
-        <v>1.029426082306697</v>
+        <v>1.038266584495243</v>
       </c>
       <c r="L16">
-        <v>1.023493248022678</v>
+        <v>1.033416197442176</v>
       </c>
       <c r="M16">
-        <v>1.029167913892088</v>
+        <v>1.038969091936204</v>
       </c>
       <c r="N16">
-        <v>1.023906244889348</v>
+        <v>1.034267939785684</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9970899793112187</v>
+        <v>1.006686479390024</v>
       </c>
       <c r="D17">
-        <v>1.017689945094371</v>
+        <v>1.0257406261056</v>
       </c>
       <c r="E17">
-        <v>1.01190547714727</v>
+        <v>1.020958667543117</v>
       </c>
       <c r="F17">
-        <v>1.017869313972011</v>
+        <v>1.026801015691414</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047166841623473</v>
+        <v>1.051291996770439</v>
       </c>
       <c r="J17">
-        <v>1.024660446465721</v>
+        <v>1.033890109054911</v>
       </c>
       <c r="K17">
-        <v>1.031394755456242</v>
+        <v>1.039311895420332</v>
       </c>
       <c r="L17">
-        <v>1.025707931399024</v>
+        <v>1.034608930786824</v>
       </c>
       <c r="M17">
-        <v>1.031571119389129</v>
+        <v>1.040354896397261</v>
       </c>
       <c r="N17">
-        <v>1.026115581829899</v>
+        <v>1.035358351598621</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9988248144451742</v>
+        <v>1.007746711783327</v>
       </c>
       <c r="D18">
-        <v>1.019031282983274</v>
+        <v>1.026540842180532</v>
       </c>
       <c r="E18">
-        <v>1.013393516191353</v>
+        <v>1.021847532641195</v>
       </c>
       <c r="F18">
-        <v>1.019466159349299</v>
+        <v>1.027801909075745</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047831936007394</v>
+        <v>1.051688577918766</v>
       </c>
       <c r="J18">
-        <v>1.025932292509633</v>
+        <v>1.034520218732613</v>
       </c>
       <c r="K18">
-        <v>1.03252940324664</v>
+        <v>1.039916649877945</v>
       </c>
       <c r="L18">
-        <v>1.026984996708022</v>
+        <v>1.035299512258278</v>
       </c>
       <c r="M18">
-        <v>1.032957133316925</v>
+        <v>1.041157401912822</v>
       </c>
       <c r="N18">
-        <v>1.027389234041076</v>
+        <v>1.035989356104341</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9994130264818784</v>
+        <v>1.008106890546036</v>
       </c>
       <c r="D19">
-        <v>1.01948616403361</v>
+        <v>1.026812753600697</v>
       </c>
       <c r="E19">
-        <v>1.013898211919792</v>
+        <v>1.022149630025529</v>
       </c>
       <c r="F19">
-        <v>1.0200077737023</v>
+        <v>1.028142075869185</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04805719719705</v>
+        <v>1.05182312104422</v>
       </c>
       <c r="J19">
-        <v>1.026363470284499</v>
+        <v>1.034734231124555</v>
       </c>
       <c r="K19">
-        <v>1.032914022667359</v>
+        <v>1.040122024651616</v>
       </c>
       <c r="L19">
-        <v>1.027417999656606</v>
+        <v>1.035534125443609</v>
       </c>
       <c r="M19">
-        <v>1.033427117226276</v>
+        <v>1.041430062857781</v>
       </c>
       <c r="N19">
-        <v>1.027821024137839</v>
+        <v>1.036203672418426</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9967692745628973</v>
+        <v>1.006490820344986</v>
       </c>
       <c r="D20">
-        <v>1.01744202598877</v>
+        <v>1.025592982594834</v>
       </c>
       <c r="E20">
-        <v>1.011630473915875</v>
+        <v>1.020794697890391</v>
       </c>
       <c r="F20">
-        <v>1.017574209380678</v>
+        <v>1.026616377379092</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047043774628426</v>
+        <v>1.051218723829546</v>
       </c>
       <c r="J20">
-        <v>1.024425305842563</v>
+        <v>1.033773804537076</v>
       </c>
       <c r="K20">
-        <v>1.031184958571393</v>
+        <v>1.039200258657502</v>
       </c>
       <c r="L20">
-        <v>1.025471852537703</v>
+        <v>1.034481494010772</v>
       </c>
       <c r="M20">
-        <v>1.031314919679189</v>
+        <v>1.040206816822397</v>
       </c>
       <c r="N20">
-        <v>1.025880107280084</v>
+        <v>1.035241881915032</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9879325837723237</v>
+        <v>1.001141640668988</v>
       </c>
       <c r="D21">
-        <v>1.010616454960294</v>
+        <v>1.02156037030465</v>
       </c>
       <c r="E21">
-        <v>1.00406271040035</v>
+        <v>1.016319613567902</v>
       </c>
       <c r="F21">
-        <v>1.009454062108482</v>
+        <v>1.021576838273947</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043639403370879</v>
+        <v>1.049205552128496</v>
       </c>
       <c r="J21">
-        <v>1.017943648841646</v>
+        <v>1.0305917077812</v>
       </c>
       <c r="K21">
-        <v>1.025399448614683</v>
+        <v>1.036144472440107</v>
       </c>
       <c r="L21">
-        <v>1.018967520119186</v>
+        <v>1.030998264365401</v>
       </c>
       <c r="M21">
-        <v>1.024258511021338</v>
+        <v>1.03616064529624</v>
       </c>
       <c r="N21">
-        <v>1.01938924558277</v>
+        <v>1.032055266216771</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9821769373015393</v>
+        <v>0.9977019885547194</v>
       </c>
       <c r="D22">
-        <v>1.006176936741553</v>
+        <v>1.018971356223713</v>
       </c>
       <c r="E22">
-        <v>0.9991436790359346</v>
+        <v>1.013449810078</v>
       </c>
       <c r="F22">
-        <v>1.004176683534452</v>
+        <v>1.018344641960574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041409336629622</v>
+        <v>1.047901547966475</v>
       </c>
       <c r="J22">
-        <v>1.013719835961147</v>
+        <v>1.028543375951047</v>
       </c>
       <c r="K22">
-        <v>1.02162701248426</v>
+        <v>1.034176128027181</v>
       </c>
       <c r="L22">
-        <v>1.014732118920209</v>
+        <v>1.02875945076577</v>
       </c>
       <c r="M22">
-        <v>1.019665851115208</v>
+        <v>1.033561241972593</v>
       </c>
       <c r="N22">
-        <v>1.015159434403502</v>
+        <v>1.030004025520472</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852480344056629</v>
+        <v>0.9995328871611254</v>
       </c>
       <c r="D23">
-        <v>1.008545133166578</v>
+        <v>1.020349063169502</v>
       </c>
       <c r="E23">
-        <v>1.001767375114564</v>
+        <v>1.014976631088355</v>
       </c>
       <c r="F23">
-        <v>1.006991452747989</v>
+        <v>1.020064310828904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042600411988586</v>
+        <v>1.048596536064829</v>
       </c>
       <c r="J23">
-        <v>1.015973736995432</v>
+        <v>1.029633875924288</v>
       </c>
       <c r="K23">
-        <v>1.023640253956149</v>
+        <v>1.035224164679902</v>
       </c>
       <c r="L23">
-        <v>1.016991899286675</v>
+        <v>1.029951044180362</v>
       </c>
       <c r="M23">
-        <v>1.022116035722893</v>
+        <v>1.034944641902099</v>
       </c>
       <c r="N23">
-        <v>1.017416536235782</v>
+        <v>1.031096074128756</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9969142489677334</v>
+        <v>1.006579254836466</v>
       </c>
       <c r="D24">
-        <v>1.017554096003729</v>
+        <v>1.025659713689222</v>
       </c>
       <c r="E24">
-        <v>1.01175478594467</v>
+        <v>1.020868806835891</v>
       </c>
       <c r="F24">
-        <v>1.017707607729024</v>
+        <v>1.026699827992673</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047099411444169</v>
+        <v>1.051251845233966</v>
       </c>
       <c r="J24">
-        <v>1.024531601967073</v>
+        <v>1.033826372989912</v>
       </c>
       <c r="K24">
-        <v>1.03127979879747</v>
+        <v>1.039250717801345</v>
       </c>
       <c r="L24">
-        <v>1.025578571769229</v>
+        <v>1.034539092998445</v>
       </c>
       <c r="M24">
-        <v>1.03143073377632</v>
+        <v>1.040273745533567</v>
       </c>
       <c r="N24">
-        <v>1.025986554357283</v>
+        <v>1.0352945250211</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009673218101528</v>
+        <v>1.014445395221291</v>
       </c>
       <c r="D25">
-        <v>1.02742731466364</v>
+        <v>1.03160311036296</v>
       </c>
       <c r="E25">
-        <v>1.022714776042492</v>
+        <v>1.027477355339008</v>
       </c>
       <c r="F25">
-        <v>1.029470635461083</v>
+        <v>1.034140793241921</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051964864341146</v>
+        <v>1.054174816248883</v>
       </c>
       <c r="J25">
-        <v>1.033879368329203</v>
+        <v>1.038496205510891</v>
       </c>
       <c r="K25">
-        <v>1.039614270359813</v>
+        <v>1.043729866585685</v>
       </c>
       <c r="L25">
-        <v>1.034970418446618</v>
+        <v>1.039663585962549</v>
       </c>
       <c r="M25">
-        <v>1.041628056751191</v>
+        <v>1.046231266013182</v>
       </c>
       <c r="N25">
-        <v>1.035347595619852</v>
+        <v>1.039970989239896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020490759373901</v>
+        <v>1.013719023970561</v>
       </c>
       <c r="D2">
-        <v>1.036180612682664</v>
+        <v>1.030892360561687</v>
       </c>
       <c r="E2">
-        <v>1.032579189248166</v>
+        <v>1.026739434848355</v>
       </c>
       <c r="F2">
-        <v>1.039884679573454</v>
+        <v>1.033940288563521</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056386634403826</v>
+        <v>1.052599605192053</v>
       </c>
       <c r="J2">
-        <v>1.042075403626021</v>
+        <v>1.035497003508549</v>
       </c>
       <c r="K2">
-        <v>1.047157896096938</v>
+        <v>1.041937459835502</v>
       </c>
       <c r="L2">
-        <v>1.043602562512908</v>
+        <v>1.037838403936837</v>
       </c>
       <c r="M2">
-        <v>1.050814975170211</v>
+        <v>1.044946195744398</v>
       </c>
       <c r="N2">
-        <v>1.043555270226889</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015709397487908</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040723699035217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024757564056574</v>
+        <v>1.017167141749725</v>
       </c>
       <c r="D3">
-        <v>1.039416117614279</v>
+        <v>1.033183757345693</v>
       </c>
       <c r="E3">
-        <v>1.036192549180605</v>
+        <v>1.029622017182164</v>
       </c>
       <c r="F3">
-        <v>1.043952653808933</v>
+        <v>1.037265368132112</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057926985446656</v>
+        <v>1.05356277070355</v>
       </c>
       <c r="J3">
-        <v>1.044595335109182</v>
+        <v>1.037200507278891</v>
       </c>
       <c r="K3">
-        <v>1.049568328764263</v>
+        <v>1.043408946750508</v>
       </c>
       <c r="L3">
-        <v>1.046382371314536</v>
+        <v>1.039889404687209</v>
       </c>
       <c r="M3">
-        <v>1.054052420812786</v>
+        <v>1.047442641047884</v>
       </c>
       <c r="N3">
-        <v>1.046078780301797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016279022098248</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041761504351203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027464745134129</v>
+        <v>1.019361707575186</v>
       </c>
       <c r="D4">
-        <v>1.041470845359133</v>
+        <v>1.034645636062636</v>
       </c>
       <c r="E4">
-        <v>1.038490678632073</v>
+        <v>1.031462139675486</v>
       </c>
       <c r="F4">
-        <v>1.046539935755724</v>
+        <v>1.039387419074587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058894458317251</v>
+        <v>1.054167133504584</v>
       </c>
       <c r="J4">
-        <v>1.046191068966493</v>
+        <v>1.038282779377608</v>
       </c>
       <c r="K4">
-        <v>1.051093248734977</v>
+        <v>1.044343154848832</v>
       </c>
       <c r="L4">
-        <v>1.048145731287518</v>
+        <v>1.041195113069361</v>
       </c>
       <c r="M4">
-        <v>1.056107328353892</v>
+        <v>1.049032623284068</v>
       </c>
       <c r="N4">
-        <v>1.047676780284219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016640986388512</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042422958000553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028590406700383</v>
+        <v>1.02027836340626</v>
       </c>
       <c r="D5">
-        <v>1.04232562132282</v>
+        <v>1.035259119639291</v>
       </c>
       <c r="E5">
-        <v>1.039447550217309</v>
+        <v>1.032232246375477</v>
       </c>
       <c r="F5">
-        <v>1.047617214791869</v>
+        <v>1.040275042910853</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059294342381772</v>
+        <v>1.054418823910897</v>
       </c>
       <c r="J5">
-        <v>1.046853811125738</v>
+        <v>1.038735602212559</v>
       </c>
       <c r="K5">
-        <v>1.051726218523362</v>
+        <v>1.044735424033266</v>
       </c>
       <c r="L5">
-        <v>1.048878829545224</v>
+        <v>1.041741368311734</v>
       </c>
       <c r="M5">
-        <v>1.056961937912177</v>
+        <v>1.049697479330256</v>
       </c>
       <c r="N5">
-        <v>1.048340463613347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016792718770202</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042707467761501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028778692887555</v>
+        <v>1.020434920573714</v>
       </c>
       <c r="D6">
-        <v>1.0424686200251</v>
+        <v>1.035366436458682</v>
       </c>
       <c r="E6">
-        <v>1.039607678612164</v>
+        <v>1.032364096241536</v>
       </c>
       <c r="F6">
-        <v>1.047797493912661</v>
+        <v>1.040426580171093</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059361087938778</v>
+        <v>1.054463337514502</v>
       </c>
       <c r="J6">
-        <v>1.046964619813803</v>
+        <v>1.038814427621755</v>
       </c>
       <c r="K6">
-        <v>1.05183202784245</v>
+        <v>1.044805586691714</v>
       </c>
       <c r="L6">
-        <v>1.049001445033212</v>
+        <v>1.041835649732797</v>
       </c>
       <c r="M6">
-        <v>1.057104894922814</v>
+        <v>1.049811636023667</v>
       </c>
       <c r="N6">
-        <v>1.048451429662459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016819461723625</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042765790786873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027479834600419</v>
+        <v>1.019382407392658</v>
       </c>
       <c r="D7">
-        <v>1.041482302053651</v>
+        <v>1.034666141136004</v>
       </c>
       <c r="E7">
-        <v>1.038503500397636</v>
+        <v>1.031480190061599</v>
       </c>
       <c r="F7">
-        <v>1.046554370877197</v>
+        <v>1.039407076809736</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058899828265874</v>
+        <v>1.054177236503573</v>
       </c>
       <c r="J7">
-        <v>1.046199956101437</v>
+        <v>1.038297062110608</v>
       </c>
       <c r="K7">
-        <v>1.051101738073646</v>
+        <v>1.044360565184234</v>
       </c>
       <c r="L7">
-        <v>1.048155558954272</v>
+        <v>1.041210082605738</v>
       </c>
       <c r="M7">
-        <v>1.05611878375575</v>
+        <v>1.049049215526289</v>
       </c>
       <c r="N7">
-        <v>1.047685680039913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016646665683885</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04245530796246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021944132748191</v>
+        <v>1.014902465305974</v>
       </c>
       <c r="D8">
-        <v>1.037282280498788</v>
+        <v>1.031686215152226</v>
       </c>
       <c r="E8">
-        <v>1.033808801420691</v>
+        <v>1.027728491348528</v>
       </c>
       <c r="F8">
-        <v>1.041268998396641</v>
+        <v>1.03507983764006</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056913354512153</v>
+        <v>1.052937306174536</v>
       </c>
       <c r="J8">
-        <v>1.042934382546109</v>
+        <v>1.036087036742057</v>
       </c>
       <c r="K8">
-        <v>1.047979854118883</v>
+        <v>1.042453423151176</v>
       </c>
       <c r="L8">
-        <v>1.044549486542146</v>
+        <v>1.038545518406945</v>
       </c>
       <c r="M8">
-        <v>1.051917531289678</v>
+        <v>1.045804705332315</v>
       </c>
       <c r="N8">
-        <v>1.04441546899557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015907840148624</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041111360258064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011757901960992</v>
+        <v>1.006703308590402</v>
       </c>
       <c r="D9">
-        <v>1.029570841397876</v>
+        <v>1.026251090314702</v>
       </c>
       <c r="E9">
-        <v>1.025215785997831</v>
+        <v>1.020905619949927</v>
       </c>
       <c r="F9">
-        <v>1.031594476628917</v>
+        <v>1.027207476291563</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053181524333071</v>
+        <v>1.050594124423433</v>
       </c>
       <c r="J9">
-        <v>1.036902182860221</v>
+        <v>1.032021556297689</v>
       </c>
       <c r="K9">
-        <v>1.04220170278979</v>
+        <v>1.038932150213857</v>
       </c>
       <c r="L9">
-        <v>1.037912585681366</v>
+        <v>1.033668385225548</v>
       </c>
       <c r="M9">
-        <v>1.044194939999354</v>
+        <v>1.039874032126458</v>
       </c>
       <c r="N9">
-        <v>1.038374702894226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014547823721839</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038618436109332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004647056638727</v>
+        <v>1.001027277638786</v>
       </c>
       <c r="D10">
-        <v>1.024202168974228</v>
+        <v>1.022512631189614</v>
       </c>
       <c r="E10">
-        <v>1.019250539294596</v>
+        <v>1.016214528415587</v>
       </c>
       <c r="F10">
-        <v>1.024877531262065</v>
+        <v>1.021790602321917</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050526954303986</v>
+        <v>1.048930012039724</v>
       </c>
       <c r="J10">
-        <v>1.032677505583717</v>
+        <v>1.029200196981607</v>
       </c>
       <c r="K10">
-        <v>1.03814777570544</v>
+        <v>1.036486971527694</v>
       </c>
       <c r="L10">
-        <v>1.033280705735102</v>
+        <v>1.03029706853284</v>
       </c>
       <c r="M10">
-        <v>1.038811686457226</v>
+        <v>1.035777259486638</v>
       </c>
       <c r="N10">
-        <v>1.034144026091411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013604888685987</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036906323886042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001484896649928</v>
+        <v>0.9985254338772319</v>
       </c>
       <c r="D11">
-        <v>1.021818914875608</v>
+        <v>1.020878238005539</v>
       </c>
       <c r="E11">
-        <v>1.01660633440705</v>
+        <v>1.014155810699995</v>
       </c>
       <c r="F11">
-        <v>1.021899746603368</v>
+        <v>1.019410794042388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04933529123928</v>
+        <v>1.048191509516533</v>
       </c>
       <c r="J11">
-        <v>1.03079603239186</v>
+        <v>1.027959685448598</v>
       </c>
       <c r="K11">
-        <v>1.036340764019205</v>
+        <v>1.035416877162908</v>
       </c>
       <c r="L11">
-        <v>1.031221730505755</v>
+        <v>1.028815617194826</v>
       </c>
       <c r="M11">
-        <v>1.036420154864627</v>
+        <v>1.033975705786951</v>
       </c>
       <c r="N11">
-        <v>1.032259880991814</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013191763474369</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036182506376381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000297184684711</v>
+        <v>0.9975819525921296</v>
       </c>
       <c r="D12">
-        <v>1.02092445137966</v>
+        <v>1.020258429157443</v>
       </c>
       <c r="E12">
-        <v>1.015614499061057</v>
+        <v>1.013380101640459</v>
       </c>
       <c r="F12">
-        <v>1.020782715895405</v>
+        <v>1.018514780907376</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04888606749976</v>
+        <v>1.047908840565631</v>
       </c>
       <c r="J12">
-        <v>1.030088972444465</v>
+        <v>1.027489002256719</v>
       </c>
       <c r="K12">
-        <v>1.035661459370427</v>
+        <v>1.035007536046492</v>
       </c>
       <c r="L12">
-        <v>1.030448541822688</v>
+        <v>1.028255372394764</v>
       </c>
       <c r="M12">
-        <v>1.035522296919551</v>
+        <v>1.033295660303685</v>
       </c>
       <c r="N12">
-        <v>1.031551816938192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013034317063112</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035893089780413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000552558806644</v>
+        <v>0.9977836055596827</v>
       </c>
       <c r="D13">
-        <v>1.021116740872796</v>
+        <v>1.020390016506121</v>
       </c>
       <c r="E13">
-        <v>1.015827696001386</v>
+        <v>1.013545725806329</v>
       </c>
       <c r="F13">
-        <v>1.021022827230641</v>
+        <v>1.018706266556846</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048982729692141</v>
+        <v>1.047968796034374</v>
       </c>
       <c r="J13">
-        <v>1.030241016182143</v>
+        <v>1.027589098923091</v>
       </c>
       <c r="K13">
-        <v>1.035807544810442</v>
+        <v>1.035093972519178</v>
       </c>
       <c r="L13">
-        <v>1.030614779613457</v>
+        <v>1.028374753876344</v>
       </c>
       <c r="M13">
-        <v>1.035715329424081</v>
+        <v>1.033440788475961</v>
       </c>
       <c r="N13">
-        <v>1.031704076595418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013067656546849</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035951713461405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001386992116814</v>
+        <v>0.9984471436271868</v>
       </c>
       <c r="D14">
-        <v>1.021745168757658</v>
+        <v>1.020826426017136</v>
       </c>
       <c r="E14">
-        <v>1.016524548828796</v>
+        <v>1.014091368240566</v>
       </c>
       <c r="F14">
-        <v>1.021807639075136</v>
+        <v>1.019336432044016</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04929829410703</v>
+        <v>1.04816785814394</v>
       </c>
       <c r="J14">
-        <v>1.03073775597985</v>
+        <v>1.027920412845494</v>
       </c>
       <c r="K14">
-        <v>1.036284779781775</v>
+        <v>1.035382459569648</v>
       </c>
       <c r="L14">
-        <v>1.031157991996436</v>
+        <v>1.02876897339554</v>
       </c>
       <c r="M14">
-        <v>1.036346134834446</v>
+        <v>1.033919181016558</v>
       </c>
       <c r="N14">
-        <v>1.032201521820614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013178565459513</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036157105600956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001899351785502</v>
+        <v>0.9988570519961231</v>
       </c>
       <c r="D15">
-        <v>1.022131129739277</v>
+        <v>1.021097826838537</v>
       </c>
       <c r="E15">
-        <v>1.016952608474552</v>
+        <v>1.014428835262521</v>
       </c>
       <c r="F15">
-        <v>1.022289720087615</v>
+        <v>1.019725821200137</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04949184333709</v>
+        <v>1.048291687258291</v>
       </c>
       <c r="J15">
-        <v>1.031042716401099</v>
+        <v>1.028126079151817</v>
       </c>
       <c r="K15">
-        <v>1.036577736047024</v>
+        <v>1.035562762117859</v>
       </c>
       <c r="L15">
-        <v>1.031491559072006</v>
+        <v>1.029013234499361</v>
       </c>
       <c r="M15">
-        <v>1.036733517536677</v>
+        <v>1.034215167961307</v>
       </c>
       <c r="N15">
-        <v>1.032506915320641</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013247696982284</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036290448936552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004855112452239</v>
+        <v>1.001211349915904</v>
       </c>
       <c r="D16">
-        <v>1.024359068552155</v>
+        <v>1.022647703417739</v>
       </c>
       <c r="E16">
-        <v>1.019424697876681</v>
+        <v>1.016368099567662</v>
       </c>
       <c r="F16">
-        <v>1.025073651823605</v>
+        <v>1.021965243822645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05060513109022</v>
+        <v>1.048993321244782</v>
       </c>
       <c r="J16">
-        <v>1.032801243555876</v>
+        <v>1.029300357516044</v>
       </c>
       <c r="K16">
-        <v>1.038266584495243</v>
+        <v>1.036584228500787</v>
       </c>
       <c r="L16">
-        <v>1.033416197442176</v>
+        <v>1.030412151841529</v>
       </c>
       <c r="M16">
-        <v>1.038969091936204</v>
+        <v>1.035913372183908</v>
       </c>
       <c r="N16">
-        <v>1.034267939785684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013640667507836</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037015822826161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006686479390024</v>
+        <v>1.002673230548255</v>
       </c>
       <c r="D17">
-        <v>1.0257406261056</v>
+        <v>1.023611583805064</v>
       </c>
       <c r="E17">
-        <v>1.020958667543117</v>
+        <v>1.01757439790285</v>
       </c>
       <c r="F17">
-        <v>1.026801015691414</v>
+        <v>1.023357983707396</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051291996770439</v>
+        <v>1.049426379853159</v>
       </c>
       <c r="J17">
-        <v>1.033890109054911</v>
+        <v>1.030029066638751</v>
       </c>
       <c r="K17">
-        <v>1.039311895420332</v>
+        <v>1.037217905815661</v>
       </c>
       <c r="L17">
-        <v>1.034608930786824</v>
+        <v>1.031281144735787</v>
       </c>
       <c r="M17">
-        <v>1.040354896397261</v>
+        <v>1.036968493516789</v>
       </c>
       <c r="N17">
-        <v>1.035358351598621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013884555164758</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03746643801252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007746711783327</v>
+        <v>1.003514744797299</v>
       </c>
       <c r="D18">
-        <v>1.026540842180532</v>
+        <v>1.024162429146996</v>
       </c>
       <c r="E18">
-        <v>1.021847532641195</v>
+        <v>1.018268964000572</v>
       </c>
       <c r="F18">
-        <v>1.027801909075745</v>
+        <v>1.024160675370899</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051688577918766</v>
+        <v>1.049671871933177</v>
       </c>
       <c r="J18">
-        <v>1.034520218732613</v>
+        <v>1.030445623759989</v>
       </c>
       <c r="K18">
-        <v>1.039916649877945</v>
+        <v>1.037576726185055</v>
       </c>
       <c r="L18">
-        <v>1.035299512258278</v>
+        <v>1.031779630350766</v>
       </c>
       <c r="M18">
-        <v>1.041157401912822</v>
+        <v>1.037575000874641</v>
       </c>
       <c r="N18">
-        <v>1.035989356104341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014023251520231</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037708517451622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1232,93 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008106890546036</v>
+        <v>1.003805370561797</v>
       </c>
       <c r="D19">
-        <v>1.026812753600697</v>
+        <v>1.024356271012281</v>
       </c>
       <c r="E19">
-        <v>1.022149630025529</v>
+        <v>1.018509413670326</v>
       </c>
       <c r="F19">
-        <v>1.028142075869185</v>
+        <v>1.024437865714781</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05182312104422</v>
+        <v>1.049758704402587</v>
       </c>
       <c r="J19">
-        <v>1.034734231124555</v>
+        <v>1.030591591025632</v>
       </c>
       <c r="K19">
-        <v>1.040122024651616</v>
+        <v>1.037705059881524</v>
       </c>
       <c r="L19">
-        <v>1.035534125443609</v>
+        <v>1.031953247595104</v>
       </c>
       <c r="M19">
-        <v>1.041430062857781</v>
+        <v>1.037785338052058</v>
       </c>
       <c r="N19">
-        <v>1.036203672418426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014072423689857</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037805634786207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006490820344986</v>
+        <v>1.002516471754994</v>
       </c>
       <c r="D20">
-        <v>1.025592982594834</v>
+        <v>1.023507820687567</v>
       </c>
       <c r="E20">
-        <v>1.020794697890391</v>
+        <v>1.017444921760603</v>
       </c>
       <c r="F20">
-        <v>1.026616377379092</v>
+        <v>1.023208573524459</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051218723829546</v>
+        <v>1.049379821166492</v>
       </c>
       <c r="J20">
-        <v>1.033773804537076</v>
+        <v>1.029950731108104</v>
       </c>
       <c r="K20">
-        <v>1.039200258657502</v>
+        <v>1.037149535392599</v>
       </c>
       <c r="L20">
-        <v>1.034481494010772</v>
+        <v>1.031187805651163</v>
       </c>
       <c r="M20">
-        <v>1.040206816822397</v>
+        <v>1.036855245437813</v>
       </c>
       <c r="N20">
-        <v>1.035241881915032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013858279639092</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037416764622203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.001141640668988</v>
+        <v>0.9982582779315758</v>
       </c>
       <c r="D21">
-        <v>1.02156037030465</v>
+        <v>1.020706933058695</v>
       </c>
       <c r="E21">
-        <v>1.016319613567902</v>
+        <v>1.013936664517805</v>
       </c>
       <c r="F21">
-        <v>1.021576838273947</v>
+        <v>1.019156830023326</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049205552128496</v>
+        <v>1.048114189747466</v>
       </c>
       <c r="J21">
-        <v>1.0305917077812</v>
+        <v>1.027829000754621</v>
       </c>
       <c r="K21">
-        <v>1.036144472440107</v>
+        <v>1.035306346095787</v>
       </c>
       <c r="L21">
-        <v>1.030998264365401</v>
+        <v>1.028658727001414</v>
       </c>
       <c r="M21">
-        <v>1.03616064529624</v>
+        <v>1.033784137591631</v>
       </c>
       <c r="N21">
-        <v>1.032055266216771</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013148762351194</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036116785083036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9977019885547194</v>
+        <v>0.9955232636837461</v>
       </c>
       <c r="D22">
-        <v>1.018971356223713</v>
+        <v>1.018907087324205</v>
       </c>
       <c r="E22">
-        <v>1.013449810078</v>
+        <v>1.01168972171812</v>
       </c>
       <c r="F22">
-        <v>1.018344641960574</v>
+        <v>1.016562046486423</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047901547966475</v>
+        <v>1.047289050452818</v>
       </c>
       <c r="J22">
-        <v>1.028543375951047</v>
+        <v>1.026461210456005</v>
       </c>
       <c r="K22">
-        <v>1.034176128027181</v>
+        <v>1.03411307122337</v>
       </c>
       <c r="L22">
-        <v>1.02875945076577</v>
+        <v>1.027033106226716</v>
       </c>
       <c r="M22">
-        <v>1.033561241972593</v>
+        <v>1.031812394335052</v>
       </c>
       <c r="N22">
-        <v>1.030004025520472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012690451156402</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035259607481538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9995328871611254</v>
+        <v>0.9969704696789428</v>
       </c>
       <c r="D23">
-        <v>1.020349063169502</v>
+        <v>1.019853289149275</v>
       </c>
       <c r="E23">
-        <v>1.014976631088355</v>
+        <v>1.012877207587116</v>
       </c>
       <c r="F23">
-        <v>1.020064310828904</v>
+        <v>1.017934579420061</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048596536064829</v>
+        <v>1.047722939469938</v>
       </c>
       <c r="J23">
-        <v>1.029633875924288</v>
+        <v>1.02718163981363</v>
       </c>
       <c r="K23">
-        <v>1.035224164679902</v>
+        <v>1.034737498153722</v>
       </c>
       <c r="L23">
-        <v>1.029951044180362</v>
+        <v>1.027890803104162</v>
       </c>
       <c r="M23">
-        <v>1.034944641902099</v>
+        <v>1.032854144584632</v>
       </c>
       <c r="N23">
-        <v>1.031096074128756</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012930882334483</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03569148326101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006579254836466</v>
+        <v>1.002574872883101</v>
       </c>
       <c r="D24">
-        <v>1.025659713689222</v>
+        <v>1.023537012191849</v>
       </c>
       <c r="E24">
-        <v>1.020868806835891</v>
+        <v>1.01749194429931</v>
       </c>
       <c r="F24">
-        <v>1.026699827992673</v>
+        <v>1.023264659790856</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051251845233966</v>
+        <v>1.049391218637733</v>
       </c>
       <c r="J24">
-        <v>1.033826372989912</v>
+        <v>1.029974164199831</v>
       </c>
       <c r="K24">
-        <v>1.039250717801345</v>
+        <v>1.037163025853754</v>
       </c>
       <c r="L24">
-        <v>1.034539092998445</v>
+        <v>1.031218690615611</v>
       </c>
       <c r="M24">
-        <v>1.040273745533567</v>
+        <v>1.036895178872008</v>
       </c>
       <c r="N24">
-        <v>1.0352945250211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013864611520301</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037398954567033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014445395221291</v>
+        <v>1.008872325902324</v>
       </c>
       <c r="D25">
-        <v>1.03160311036296</v>
+        <v>1.027695379606299</v>
       </c>
       <c r="E25">
-        <v>1.027477355339008</v>
+        <v>1.022706336480087</v>
       </c>
       <c r="F25">
-        <v>1.034140793241921</v>
+        <v>1.029283911685325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054174816248883</v>
+        <v>1.051228156795765</v>
       </c>
       <c r="J25">
-        <v>1.038496205510891</v>
+        <v>1.033104746187374</v>
       </c>
       <c r="K25">
-        <v>1.043729866585685</v>
+        <v>1.039878452175609</v>
       </c>
       <c r="L25">
-        <v>1.039663585962549</v>
+        <v>1.034962102614225</v>
       </c>
       <c r="M25">
-        <v>1.046231266013182</v>
+        <v>1.04144402573544</v>
       </c>
       <c r="N25">
-        <v>1.039970989239896</v>
+        <v>1.0149116396515</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03931603652664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,55 +424,70 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.013719023970561</v>
+        <v>1.013054101910921</v>
       </c>
       <c r="D2">
-        <v>1.030892360561687</v>
+        <v>1.02964775193843</v>
       </c>
       <c r="E2">
-        <v>1.026739434848355</v>
+        <v>1.02615254279001</v>
       </c>
       <c r="F2">
-        <v>1.033940288563521</v>
+        <v>1.033316056807133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052599605192053</v>
+        <v>1.051960682557171</v>
       </c>
       <c r="J2">
-        <v>1.035497003508549</v>
+        <v>1.034851256176029</v>
       </c>
       <c r="K2">
-        <v>1.041937459835502</v>
+        <v>1.040708938627542</v>
       </c>
       <c r="L2">
-        <v>1.037838403936837</v>
+        <v>1.037259168813425</v>
       </c>
       <c r="M2">
-        <v>1.044946195744398</v>
+        <v>1.044329967198557</v>
       </c>
       <c r="N2">
-        <v>1.015709397487908</v>
+        <v>1.016424315223272</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040723699035217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039863783197469</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022891695580945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017167141749725</v>
+        <v>1.016383641844039</v>
       </c>
       <c r="D3">
-        <v>1.033183757345693</v>
+        <v>1.031775478258832</v>
       </c>
       <c r="E3">
-        <v>1.029622017182164</v>
+        <v>1.028929321957012</v>
       </c>
       <c r="F3">
-        <v>1.037265368132112</v>
+        <v>1.036532711310389</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05356277070355</v>
+        <v>1.052830666452356</v>
       </c>
       <c r="J3">
-        <v>1.037200507278891</v>
+        <v>1.036437422518542</v>
       </c>
       <c r="K3">
-        <v>1.043408946750508</v>
+        <v>1.042017309262801</v>
       </c>
       <c r="L3">
-        <v>1.039889404687209</v>
+        <v>1.039204958309376</v>
       </c>
       <c r="M3">
-        <v>1.047442641047884</v>
+        <v>1.046718550944062</v>
       </c>
       <c r="N3">
-        <v>1.016279022098248</v>
+        <v>1.016845605006265</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041761504351203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040785976432628</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02314066433263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019361707575186</v>
+        <v>1.018503369070926</v>
       </c>
       <c r="D4">
-        <v>1.034645636062636</v>
+        <v>1.033133599135789</v>
       </c>
       <c r="E4">
-        <v>1.031462139675486</v>
+        <v>1.030702604897351</v>
       </c>
       <c r="F4">
-        <v>1.039387419074587</v>
+        <v>1.038586294154075</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054167133504584</v>
+        <v>1.053375873874124</v>
       </c>
       <c r="J4">
-        <v>1.038282779377608</v>
+        <v>1.0374453142735</v>
       </c>
       <c r="K4">
-        <v>1.044343154848832</v>
+        <v>1.042847923962936</v>
       </c>
       <c r="L4">
-        <v>1.041195113069361</v>
+        <v>1.040444077068088</v>
       </c>
       <c r="M4">
-        <v>1.049032623284068</v>
+        <v>1.048240295717587</v>
       </c>
       <c r="N4">
-        <v>1.016640986388512</v>
+        <v>1.017113387801851</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042422958000553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041374264227025</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023296403570657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02027836340626</v>
+        <v>1.019388897311193</v>
       </c>
       <c r="D5">
-        <v>1.035259119639291</v>
+        <v>1.033703879448365</v>
       </c>
       <c r="E5">
-        <v>1.032232246375477</v>
+        <v>1.031444895346847</v>
       </c>
       <c r="F5">
-        <v>1.040275042910853</v>
+        <v>1.039445432116852</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054418823910897</v>
+        <v>1.053602901415087</v>
       </c>
       <c r="J5">
-        <v>1.038735602212559</v>
+        <v>1.037867129194539</v>
       </c>
       <c r="K5">
-        <v>1.044735424033266</v>
+        <v>1.043197016403581</v>
       </c>
       <c r="L5">
-        <v>1.041741368311734</v>
+        <v>1.040962592533409</v>
       </c>
       <c r="M5">
-        <v>1.049697479330256</v>
+        <v>1.048876734101739</v>
       </c>
       <c r="N5">
-        <v>1.016792718770202</v>
+        <v>1.017225687027413</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042707467761501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04162895680793</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023361722297305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020434920573714</v>
+        <v>1.019540133188032</v>
       </c>
       <c r="D6">
-        <v>1.035366436458682</v>
+        <v>1.033803872490762</v>
       </c>
       <c r="E6">
-        <v>1.032364096241536</v>
+        <v>1.03157198599064</v>
       </c>
       <c r="F6">
-        <v>1.040426580171093</v>
+        <v>1.039592099185905</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054463337514502</v>
+        <v>1.053643219102386</v>
       </c>
       <c r="J6">
-        <v>1.038814427621755</v>
+        <v>1.037940651830884</v>
       </c>
       <c r="K6">
-        <v>1.044805586691714</v>
+        <v>1.04325985816073</v>
       </c>
       <c r="L6">
-        <v>1.041835649732797</v>
+        <v>1.041052127038067</v>
       </c>
       <c r="M6">
-        <v>1.049811636023667</v>
+        <v>1.048986031486488</v>
       </c>
       <c r="N6">
-        <v>1.016819461723625</v>
+        <v>1.017245516065871</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042765790786873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041682973304262</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023373966901146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019382407392658</v>
+        <v>1.018530051342689</v>
       </c>
       <c r="D7">
-        <v>1.034666141136004</v>
+        <v>1.033158100483083</v>
       </c>
       <c r="E7">
-        <v>1.031480190061599</v>
+        <v>1.030726029107374</v>
       </c>
       <c r="F7">
-        <v>1.039407076809736</v>
+        <v>1.038611301622388</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054177236503573</v>
+        <v>1.053389083912371</v>
       </c>
       <c r="J7">
-        <v>1.038297062110608</v>
+        <v>1.037465425134013</v>
       </c>
       <c r="K7">
-        <v>1.044360565184234</v>
+        <v>1.04286927967404</v>
       </c>
       <c r="L7">
-        <v>1.041210082605738</v>
+        <v>1.040464357067635</v>
       </c>
       <c r="M7">
-        <v>1.049049215526289</v>
+        <v>1.048262175578119</v>
       </c>
       <c r="N7">
-        <v>1.016646665683885</v>
+        <v>1.017145192628546</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04245530796246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.0414114051201</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023302339931857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014902465305974</v>
+        <v>1.014217259779175</v>
       </c>
       <c r="D8">
-        <v>1.031686215152226</v>
+        <v>1.030400335878122</v>
       </c>
       <c r="E8">
-        <v>1.027728491348528</v>
+        <v>1.027123663976622</v>
       </c>
       <c r="F8">
-        <v>1.03507983764006</v>
+        <v>1.034436716907162</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052937306174536</v>
+        <v>1.052277500126703</v>
       </c>
       <c r="J8">
-        <v>1.036087036742057</v>
+        <v>1.035420936833652</v>
       </c>
       <c r="K8">
-        <v>1.042453423151176</v>
+        <v>1.041183677928245</v>
       </c>
       <c r="L8">
-        <v>1.038545518406945</v>
+        <v>1.037948346699749</v>
       </c>
       <c r="M8">
-        <v>1.045804705332315</v>
+        <v>1.04516958187265</v>
       </c>
       <c r="N8">
-        <v>1.015907840148624</v>
+        <v>1.016654805605419</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041111360258064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040224565574835</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022985843092895</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006703308590402</v>
+        <v>1.006307076877303</v>
       </c>
       <c r="D9">
-        <v>1.026251090314702</v>
+        <v>1.025358906486482</v>
       </c>
       <c r="E9">
-        <v>1.020905619949927</v>
+        <v>1.020558225500278</v>
       </c>
       <c r="F9">
-        <v>1.027207476291563</v>
+        <v>1.02682830401428</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050594124423433</v>
+        <v>1.050158349001655</v>
       </c>
       <c r="J9">
-        <v>1.032021556297689</v>
+        <v>1.031639065131121</v>
       </c>
       <c r="K9">
-        <v>1.038932150213857</v>
+        <v>1.038053527888435</v>
       </c>
       <c r="L9">
-        <v>1.033668385225548</v>
+        <v>1.033326338500543</v>
       </c>
       <c r="M9">
-        <v>1.039874032126458</v>
+        <v>1.039500606064504</v>
       </c>
       <c r="N9">
-        <v>1.014547823721839</v>
+        <v>1.015659484236356</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038618436109332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038007908499201</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022375892413191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001027277638786</v>
+        <v>1.000865352418534</v>
       </c>
       <c r="D10">
-        <v>1.022512631189614</v>
+        <v>1.021917224019439</v>
       </c>
       <c r="E10">
-        <v>1.016214528415587</v>
+        <v>1.016075616609712</v>
       </c>
       <c r="F10">
-        <v>1.021790602321917</v>
+        <v>1.021624717694163</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048930012039724</v>
+        <v>1.048666370163311</v>
       </c>
       <c r="J10">
-        <v>1.029200196981607</v>
+        <v>1.029044679047626</v>
       </c>
       <c r="K10">
-        <v>1.036486971527694</v>
+        <v>1.035901719565272</v>
       </c>
       <c r="L10">
-        <v>1.03029706853284</v>
+        <v>1.030160562758105</v>
       </c>
       <c r="M10">
-        <v>1.035777259486638</v>
+        <v>1.035614207801255</v>
       </c>
       <c r="N10">
-        <v>1.013604888685987</v>
+        <v>1.015087616795326</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036906323886042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036504906627161</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021947400164781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9985254338772319</v>
+        <v>0.9985158559041062</v>
       </c>
       <c r="D11">
-        <v>1.020878238005539</v>
+        <v>1.020448964505226</v>
       </c>
       <c r="E11">
-        <v>1.014155810699995</v>
+        <v>1.014152939357618</v>
       </c>
       <c r="F11">
-        <v>1.019410794042388</v>
+        <v>1.019383038125155</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048191509516533</v>
+        <v>1.048029605771286</v>
       </c>
       <c r="J11">
-        <v>1.027959685448598</v>
+        <v>1.027950507612355</v>
       </c>
       <c r="K11">
-        <v>1.035416877162908</v>
+        <v>1.034995279065853</v>
       </c>
       <c r="L11">
-        <v>1.028815617194826</v>
+        <v>1.028812798053055</v>
       </c>
       <c r="M11">
-        <v>1.033975705786951</v>
+        <v>1.033948447748545</v>
       </c>
       <c r="N11">
-        <v>1.013191763474369</v>
+        <v>1.01502640381188</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036182506376381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035900020512002</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021769386065635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9975819525921296</v>
+        <v>0.9976344658293307</v>
       </c>
       <c r="D12">
-        <v>1.020258429157443</v>
+        <v>1.019895031480438</v>
       </c>
       <c r="E12">
-        <v>1.013380101640459</v>
+        <v>1.013432756825067</v>
       </c>
       <c r="F12">
-        <v>1.018514780907376</v>
+        <v>1.018543322360612</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047908840565631</v>
+        <v>1.047787675584912</v>
       </c>
       <c r="J12">
-        <v>1.027489002256719</v>
+        <v>1.027539277817692</v>
       </c>
       <c r="K12">
-        <v>1.035007536046492</v>
+        <v>1.03465074848856</v>
       </c>
       <c r="L12">
-        <v>1.028255372394764</v>
+        <v>1.028307053285137</v>
       </c>
       <c r="M12">
-        <v>1.033295660303685</v>
+        <v>1.033323680538647</v>
       </c>
       <c r="N12">
-        <v>1.013034317063112</v>
+        <v>1.0150189499044</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035893089780413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035656431855933</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021700834625782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9977836055596827</v>
+        <v>0.9978226617335575</v>
       </c>
       <c r="D13">
-        <v>1.020390016506121</v>
+        <v>1.020012388585183</v>
       </c>
       <c r="E13">
-        <v>1.013545725806329</v>
+        <v>1.013586348661482</v>
       </c>
       <c r="F13">
-        <v>1.018706266556846</v>
+        <v>1.018722609716639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047968796034374</v>
+        <v>1.047838822743149</v>
       </c>
       <c r="J13">
-        <v>1.027589098923091</v>
+        <v>1.027626497863595</v>
       </c>
       <c r="K13">
-        <v>1.035093972519178</v>
+        <v>1.034723188438025</v>
       </c>
       <c r="L13">
-        <v>1.028374753876344</v>
+        <v>1.028414627898854</v>
       </c>
       <c r="M13">
-        <v>1.033440788475961</v>
+        <v>1.033456834318808</v>
       </c>
       <c r="N13">
-        <v>1.013067656546849</v>
+        <v>1.015019501684863</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035951713461405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035704916008909</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021715085153357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9984471436271868</v>
+        <v>0.9984426311404648</v>
       </c>
       <c r="D14">
-        <v>1.020826426017136</v>
+        <v>1.020402549310696</v>
       </c>
       <c r="E14">
-        <v>1.014091368240566</v>
+        <v>1.014093027499142</v>
       </c>
       <c r="F14">
-        <v>1.019336432044016</v>
+        <v>1.019313270204077</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04816785814394</v>
+        <v>1.048009287847306</v>
       </c>
       <c r="J14">
-        <v>1.027920412845494</v>
+        <v>1.027916089186262</v>
       </c>
       <c r="K14">
-        <v>1.035382459569648</v>
+        <v>1.03496617260956</v>
       </c>
       <c r="L14">
-        <v>1.02876897339554</v>
+        <v>1.028770602444772</v>
       </c>
       <c r="M14">
-        <v>1.033919181016558</v>
+        <v>1.033896435266761</v>
       </c>
       <c r="N14">
-        <v>1.013178565459513</v>
+        <v>1.015025314323965</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036157105600956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035878271356519</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021763524851758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9988570519961231</v>
+        <v>0.9988261997452759</v>
       </c>
       <c r="D15">
-        <v>1.021097826838537</v>
+        <v>1.020645825921081</v>
       </c>
       <c r="E15">
-        <v>1.014428835262521</v>
+        <v>1.014406938442392</v>
       </c>
       <c r="F15">
-        <v>1.019725821200137</v>
+        <v>1.019678770594197</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048291687258291</v>
+        <v>1.048115758396692</v>
       </c>
       <c r="J15">
-        <v>1.028126079151817</v>
+        <v>1.028096506833166</v>
       </c>
       <c r="K15">
-        <v>1.035562762117859</v>
+        <v>1.035118794042233</v>
       </c>
       <c r="L15">
-        <v>1.029013234499361</v>
+        <v>1.028991733288384</v>
       </c>
       <c r="M15">
-        <v>1.034215167961307</v>
+        <v>1.034168956018146</v>
       </c>
       <c r="N15">
-        <v>1.013247696982284</v>
+        <v>1.015031729329294</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036290448936552</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035992612411864</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021794274107227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001211349915904</v>
+        <v>1.001039002622074</v>
       </c>
       <c r="D16">
-        <v>1.022647703417739</v>
+        <v>1.02204095428568</v>
       </c>
       <c r="E16">
-        <v>1.016368099567662</v>
+        <v>1.016219826876728</v>
       </c>
       <c r="F16">
-        <v>1.021965243822645</v>
+        <v>1.021789869545334</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048993321244782</v>
+        <v>1.048722703435443</v>
       </c>
       <c r="J16">
-        <v>1.029300357516044</v>
+        <v>1.029134804636468</v>
       </c>
       <c r="K16">
-        <v>1.036584228500787</v>
+        <v>1.035987794419789</v>
       </c>
       <c r="L16">
-        <v>1.030412151841529</v>
+        <v>1.030266438831489</v>
       </c>
       <c r="M16">
-        <v>1.035913372183908</v>
+        <v>1.035740982878373</v>
       </c>
       <c r="N16">
-        <v>1.013640667507836</v>
+        <v>1.015100780468984</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037015822826161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036610485648514</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021967248070241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002673230548255</v>
+        <v>1.00242276858903</v>
       </c>
       <c r="D17">
-        <v>1.023611583805064</v>
+        <v>1.022915716186933</v>
       </c>
       <c r="E17">
-        <v>1.01757439790285</v>
+        <v>1.017356442270526</v>
       </c>
       <c r="F17">
-        <v>1.023357983707396</v>
+        <v>1.023111709818027</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049426379853159</v>
+        <v>1.04910204879846</v>
       </c>
       <c r="J17">
-        <v>1.030029066638751</v>
+        <v>1.029788160695373</v>
       </c>
       <c r="K17">
-        <v>1.037217905815661</v>
+        <v>1.036533535729286</v>
       </c>
       <c r="L17">
-        <v>1.031281144735787</v>
+        <v>1.031066843395086</v>
       </c>
       <c r="M17">
-        <v>1.036968493516789</v>
+        <v>1.036726289002781</v>
       </c>
       <c r="N17">
-        <v>1.013884555164758</v>
+        <v>1.015180244507408</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03746643801252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036999173039543</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022075895124582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003514744797299</v>
+        <v>1.003223191166889</v>
       </c>
       <c r="D18">
-        <v>1.024162429146996</v>
+        <v>1.023417935583742</v>
       </c>
       <c r="E18">
-        <v>1.018268964000572</v>
+        <v>1.018014396623195</v>
       </c>
       <c r="F18">
-        <v>1.024160675370899</v>
+        <v>1.023877081367876</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049671871933177</v>
+        <v>1.049318620796078</v>
       </c>
       <c r="J18">
-        <v>1.030445623759989</v>
+        <v>1.030164980820419</v>
       </c>
       <c r="K18">
-        <v>1.037576726185055</v>
+        <v>1.036844327823202</v>
       </c>
       <c r="L18">
-        <v>1.031779630350766</v>
+        <v>1.031529257974374</v>
       </c>
       <c r="M18">
-        <v>1.037575000874641</v>
+        <v>1.037296011556823</v>
       </c>
       <c r="N18">
-        <v>1.014023251520231</v>
+        <v>1.015238922373174</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037708517451622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037206156872759</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022136899916097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003805370561797</v>
+        <v>1.003500272496928</v>
       </c>
       <c r="D19">
-        <v>1.024356271012281</v>
+        <v>1.023595523281065</v>
       </c>
       <c r="E19">
-        <v>1.018509413670326</v>
+        <v>1.018242771415573</v>
       </c>
       <c r="F19">
-        <v>1.024437865714781</v>
+        <v>1.024141957557563</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049758704402587</v>
+        <v>1.049395829281642</v>
       </c>
       <c r="J19">
-        <v>1.030591591025632</v>
+        <v>1.030297834779554</v>
       </c>
       <c r="K19">
-        <v>1.037705059881524</v>
+        <v>1.036956599794921</v>
       </c>
       <c r="L19">
-        <v>1.031953247595104</v>
+        <v>1.031690973268202</v>
       </c>
       <c r="M19">
-        <v>1.037785338052058</v>
+        <v>1.037494205660488</v>
       </c>
       <c r="N19">
-        <v>1.014072423689857</v>
+        <v>1.015262972550995</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037805634786207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037292540321237</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022159647135022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002516471754994</v>
+        <v>1.002273993939597</v>
       </c>
       <c r="D20">
-        <v>1.023507820687567</v>
+        <v>1.022821221260966</v>
       </c>
       <c r="E20">
-        <v>1.017444921760603</v>
+        <v>1.017234086657984</v>
       </c>
       <c r="F20">
-        <v>1.023208573524459</v>
+        <v>1.022969550196469</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049379821166492</v>
+        <v>1.049061042169093</v>
       </c>
       <c r="J20">
-        <v>1.029950731108104</v>
+        <v>1.02971753749632</v>
       </c>
       <c r="K20">
-        <v>1.037149535392599</v>
+        <v>1.036474315442064</v>
       </c>
       <c r="L20">
-        <v>1.031187805651163</v>
+        <v>1.030980516650636</v>
       </c>
       <c r="M20">
-        <v>1.036855245437813</v>
+        <v>1.036620184356581</v>
       </c>
       <c r="N20">
-        <v>1.013858279639092</v>
+        <v>1.015170109326692</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037416764622203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036955839756087</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022064034543813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9982582779315758</v>
+        <v>0.9982825588713015</v>
       </c>
       <c r="D21">
-        <v>1.020706933058695</v>
+        <v>1.020308122009858</v>
       </c>
       <c r="E21">
-        <v>1.013936664517805</v>
+        <v>1.013964229071542</v>
       </c>
       <c r="F21">
-        <v>1.019156830023326</v>
+        <v>1.019159674151515</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048114189747466</v>
+        <v>1.047972543943905</v>
       </c>
       <c r="J21">
-        <v>1.027829000754621</v>
+        <v>1.027852261503031</v>
       </c>
       <c r="K21">
-        <v>1.035306346095787</v>
+        <v>1.034914701238778</v>
       </c>
       <c r="L21">
-        <v>1.028658727001414</v>
+        <v>1.028685787875678</v>
       </c>
       <c r="M21">
-        <v>1.033784137591631</v>
+        <v>1.033786930437948</v>
       </c>
       <c r="N21">
-        <v>1.013148762351194</v>
+        <v>1.015090552190134</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036116785083036</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035856687103638</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021755485141749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9955232636837461</v>
+        <v>0.995717782332259</v>
       </c>
       <c r="D22">
-        <v>1.018907087324205</v>
+        <v>1.018692092629808</v>
       </c>
       <c r="E22">
-        <v>1.01168972171812</v>
+        <v>1.011869514393149</v>
       </c>
       <c r="F22">
-        <v>1.016562046486423</v>
+        <v>1.016719374972202</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047289050452818</v>
+        <v>1.047260111698246</v>
       </c>
       <c r="J22">
-        <v>1.026461210456005</v>
+        <v>1.026647083599687</v>
       </c>
       <c r="K22">
-        <v>1.03411307122337</v>
+        <v>1.033902132728691</v>
       </c>
       <c r="L22">
-        <v>1.027033106226716</v>
+        <v>1.027209444928793</v>
       </c>
       <c r="M22">
-        <v>1.031812394335052</v>
+        <v>1.031966738075866</v>
       </c>
       <c r="N22">
-        <v>1.012690451156402</v>
+        <v>1.015026717376365</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035259607481538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035125976371333</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021551619402324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9969704696789428</v>
+        <v>0.997064305611236</v>
       </c>
       <c r="D23">
-        <v>1.019853289149275</v>
+        <v>1.0195332859447</v>
       </c>
       <c r="E23">
-        <v>1.012877207587116</v>
+        <v>1.012966860553421</v>
       </c>
       <c r="F23">
-        <v>1.017934579420061</v>
+        <v>1.018000605840415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047722939469938</v>
+        <v>1.047628709867879</v>
       </c>
       <c r="J23">
-        <v>1.02718163981363</v>
+        <v>1.027271426634822</v>
       </c>
       <c r="K23">
-        <v>1.034737498153722</v>
+        <v>1.034423379617216</v>
       </c>
       <c r="L23">
-        <v>1.027890803104162</v>
+        <v>1.027978778505796</v>
       </c>
       <c r="M23">
-        <v>1.032854144584632</v>
+        <v>1.032918951446648</v>
       </c>
       <c r="N23">
-        <v>1.012930882334483</v>
+        <v>1.015016603191338</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03569148326101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035483956063271</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021654855828388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002574872883101</v>
+        <v>1.002329477755661</v>
       </c>
       <c r="D24">
-        <v>1.023537012191849</v>
+        <v>1.02284679467713</v>
       </c>
       <c r="E24">
-        <v>1.01749194429931</v>
+        <v>1.017278542629427</v>
       </c>
       <c r="F24">
-        <v>1.023264659790856</v>
+        <v>1.023023006179798</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049391218637733</v>
+        <v>1.049070336237148</v>
       </c>
       <c r="J24">
-        <v>1.029974164199831</v>
+        <v>1.029738150284956</v>
       </c>
       <c r="K24">
-        <v>1.037163025853754</v>
+        <v>1.036484232342087</v>
       </c>
       <c r="L24">
-        <v>1.031218690615611</v>
+        <v>1.031008873195463</v>
       </c>
       <c r="M24">
-        <v>1.036895178872008</v>
+        <v>1.036657525427545</v>
       </c>
       <c r="N24">
-        <v>1.013864611520301</v>
+        <v>1.015170492951949</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037398954567033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036932828103226</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022064171920209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008872325902324</v>
+        <v>1.008390644259545</v>
       </c>
       <c r="D25">
-        <v>1.027695379606299</v>
+        <v>1.026692864860134</v>
       </c>
       <c r="E25">
-        <v>1.022706336480087</v>
+        <v>1.022282792167334</v>
       </c>
       <c r="F25">
-        <v>1.029283911685325</v>
+        <v>1.028826846637125</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051228156795765</v>
+        <v>1.050728570994898</v>
       </c>
       <c r="J25">
-        <v>1.033104746187374</v>
+        <v>1.032638892098627</v>
       </c>
       <c r="K25">
-        <v>1.039878452175609</v>
+        <v>1.038890472798205</v>
       </c>
       <c r="L25">
-        <v>1.034962102614225</v>
+        <v>1.034544771093096</v>
       </c>
       <c r="M25">
-        <v>1.04144402573544</v>
+        <v>1.040993557288818</v>
       </c>
       <c r="N25">
-        <v>1.0149116396515</v>
+        <v>1.015893416118298</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03931603652664</v>
+        <v>1.038630993525021</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022542485024162</v>
       </c>
     </row>
   </sheetData>
